--- a/inst/extdata/3dupsin5refs.xlsx
+++ b/inst/extdata/3dupsin5refs.xlsx
@@ -13,10 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="58">
-  <si>
-    <t>http://www.ncbi.nlm.nih.gov/pubmed/31248886; https://www.genetics.org/content/212/4/991; https://www.ncbi.nlm.nih.gov/pmc/articles/PMC6707473</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="60">
   <si>
     <t>Author</t>
   </si>
@@ -30,6 +27,9 @@
     <t>Locations</t>
   </si>
   <si>
+    <t>https://doi.org/10.1534/genetics.119.302134; https://www.ncbi.nlm.nih.gov/pmc/articles/PMC6707473; https://www.genetics.org/content/212/4/991</t>
+  </si>
+  <si>
     <t>10.1534/genetics.119.302134</t>
   </si>
   <si>
@@ -60,33 +60,30 @@
     <t>https://www.genetics.org/content/212/4/991</t>
   </si>
   <si>
-    <t>https://acsess.onlinelibrary.wiley.com/doi/abs/10.2135/cropsci2018.06.0376</t>
-  </si>
-  <si>
     <t>TypoDB</t>
   </si>
   <si>
     <t>Genetics</t>
   </si>
   <si>
-    <t>https://doi.org/10.1534/genetics.119.302134; https://www.genetics.org/content/212/4/991; https://www.ncbi.nlm.nih.gov/pmc/articles/PMC6707473</t>
-  </si>
-  <si>
     <t>Schmidt, Paul; Hartung, Jens; Rath, Jürgen; Piepho, Hans-Peter</t>
   </si>
   <si>
     <t>Broad‐sense heritability is defined as the proportion of phenotypic variance that is attributable to an overall variance for the genotype. It is often calculated as a measure (i) to quantify and eventually compare the precision of agricultural cultivar trials, and/or (ii) to …</t>
   </si>
   <si>
-    <t>https://acsess.onlinelibrary.wiley.com/doi/abs/10.2135/cropsci2017.09.0555</t>
-  </si>
-  <si>
     <t>Schmidt, Hartung et al. 2019 – Heritability in Plant Breeding</t>
   </si>
   <si>
+    <t>https://acsess.onlinelibrary.wiley.com/doi/abs/10.2135/cropsci2017.09.0555; https://doi.org/10.2135/cropsci2017.09.0555</t>
+  </si>
+  <si>
     <t>Title</t>
   </si>
   <si>
+    <t>10.2135/cropsci2017.09.0555</t>
+  </si>
+  <si>
     <t>PubMed</t>
   </si>
   <si>
@@ -105,6 +102,9 @@
     <t>31248886</t>
   </si>
   <si>
+    <t>https://acsess.onlinelibrary.wiley.com/doi/abs/10.2135/cropsci2018.06.0376; https://doi.org/10.2135/cropsci2018.06.0376</t>
+  </si>
+  <si>
     <t>Estimating broad‐sense heritability with unbalanced data from agricultural cultivar trials</t>
   </si>
   <si>
@@ -141,6 +141,12 @@
     <t>212</t>
   </si>
   <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC6707473; http://www.ncbi.nlm.nih.gov/pubmed/31248886; https://www.genetics.org/content/212/4/991</t>
+  </si>
+  <si>
+    <t>10.2135/cropsci2018.06.0376</t>
+  </si>
+  <si>
     <t>Schmidt, Paul; Hartung, Jens; Bennewitz, Jörn; Piepho, Hans-Peter</t>
   </si>
   <si>
@@ -168,6 +174,9 @@
     <t/>
   </si>
   <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/31248886; https://academic.oup.com/genetics/article-abstract/212/4/991/5931331; https://doi.org/10.1534/genetics.119.302134; https://www.genetics.org/content/212/4/991</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
@@ -175,9 +184,6 @@
   </si>
   <si>
     <t>7e04d120-122a-4635-a6fc-5e32e6f95ff6</t>
-  </si>
-  <si>
-    <t>https://academic.oup.com/genetics/article-abstract/212/4/991/5931331; https://www.genetics.org/content/212/4/991</t>
   </si>
   <si>
     <t>Crop Science</t>
@@ -675,43 +681,43 @@
   <sheetData>
     <row r="1" ht="18" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>40</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>13</v>
@@ -720,19 +726,19 @@
         <v>36</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>37</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2">
@@ -746,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>32</v>
@@ -755,46 +761,46 @@
         <v>30</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
@@ -811,52 +817,52 @@
         <v>6</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>33</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="O3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4">
@@ -873,52 +879,52 @@
         <v>31</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>34</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>41</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5">
@@ -941,19 +947,19 @@
         <v>38</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>34</v>
@@ -962,25 +968,25 @@
         <v>5</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q5" s="3" t="s">
         <v>41</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -994,16 +1000,16 @@
         <v>0</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>10</v>
@@ -1012,7 +1018,7 @@
         <v>10</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>33</v>
@@ -1021,28 +1027,28 @@
         <v>11</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1248,13 +1254,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85596110-E858-4D3E-9F54-561F6D67B642}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B29F3DA-5D33-4CD6-B965-125774D7A338}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0211046-5E36-4E30-8450-05580381FEE3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8396E0C8-24DD-4AFF-B903-A0BEFC2FAAF4}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2EE43B8-9FDA-47C3-B4D1-B4B033EF17B5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6B7FE0F-3381-4F74-A10B-D234BF05433F}"/>
 </file>
--- a/inst/extdata/3dupsin5refs.xlsx
+++ b/inst/extdata/3dupsin5refs.xlsx
@@ -1,19 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://biomathgmbh.sharepoint.com/sites/bm/Freigegebene Dokumente/BM Tools/R/CitaviR/CitaviR/inst/extdata/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_3D259F2FE6F535567F541EDB38B72A6C57C387C5" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A67A4DEC-457F-4BE4-8694-AA9F60D75D28}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="1000" windowWidth="15000" windowHeight="10000"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="60">
   <si>
     <t>Author</t>
   </si>
@@ -198,8 +205,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -216,6 +223,12 @@
       <sz val="9"/>
       <color indexed="64"/>
       <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -278,24 +291,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" xfId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" xfId="0" fillId="2" fontId="1" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" xfId="0" fillId="0" fontId="2" numFmtId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" xfId="0" fillId="3" fontId="2" numFmtId="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -364,6 +381,14 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -651,16 +676,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="3.5703125" customWidth="1"/>
     <col min="4" max="4" width="7.28515625" customWidth="1"/>
@@ -679,7 +705,7 @@
     <col min="20" max="20" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1">
+    <row r="1" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>52</v>
       </c>
@@ -741,7 +767,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="b">
         <v>0</v>
       </c>
@@ -803,7 +829,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="b">
         <v>0</v>
       </c>
@@ -843,9 +869,7 @@
       <c r="M3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="N3" s="3"/>
       <c r="O3" s="3" t="s">
         <v>14</v>
       </c>
@@ -865,7 +889,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="b">
         <v>0</v>
       </c>
@@ -927,7 +951,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="b">
         <v>0</v>
       </c>
@@ -989,7 +1013,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="b">
         <v>0</v>
       </c>
@@ -1052,15 +1076,20 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
-  <printOptions/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100AE11437C48BFF84BB31176724964C3BE" ma:contentTypeVersion="9" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="63ada2c6b542b925f990ddc0e32de767">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8a75887c-99f0-47e3-82c9-78fec225e70f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ea7081bc55d82209f62ba10addb01fbd" ns2:_="">
     <xsd:import namespace="8a75887c-99f0-47e3-82c9-78fec225e70f"/>
@@ -1238,15 +1267,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1254,13 +1274,36 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B29F3DA-5D33-4CD6-B965-125774D7A338}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8396E0C8-24DD-4AFF-B903-A0BEFC2FAAF4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8396E0C8-24DD-4AFF-B903-A0BEFC2FAAF4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B29F3DA-5D33-4CD6-B965-125774D7A338}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8a75887c-99f0-47e3-82c9-78fec225e70f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6B7FE0F-3381-4F74-A10B-D234BF05433F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6B7FE0F-3381-4F74-A10B-D234BF05433F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/inst/extdata/3dupsin5refs.xlsx
+++ b/inst/extdata/3dupsin5refs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://biomathgmbh.sharepoint.com/sites/bm/Freigegebene Dokumente/BM Tools/R/CitaviR/CitaviR/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_3D259F2FE6F535567F541EDB38B72A6C57C387C5" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A67A4DEC-457F-4BE4-8694-AA9F60D75D28}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_3D259F2FE6F535567F541EDB38B72A6C57C387C5" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{08C44687-648C-4EF7-B814-710D0E0D283C}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="62">
   <si>
     <t>Author</t>
   </si>
@@ -200,6 +200,12 @@
   </si>
   <si>
     <t>DOI name</t>
+  </si>
+  <si>
+    <t>1 catA</t>
+  </si>
+  <si>
+    <t>2 catB</t>
   </si>
 </sst>
 </file>
@@ -682,9 +688,7 @@
   </sheetPr>
   <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -796,7 +800,7 @@
         <v>26</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>33</v>
@@ -858,7 +862,7 @@
         <v>26</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>33</v>
@@ -918,7 +922,7 @@
         <v>26</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>23</v>
@@ -980,7 +984,7 @@
         <v>26</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>15</v>
@@ -1042,7 +1046,7 @@
         <v>10</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>33</v>
@@ -1081,12 +1085,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1268,15 +1269,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8396E0C8-24DD-4AFF-B903-A0BEFC2FAAF4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6B7FE0F-3381-4F74-A10B-D234BF05433F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1300,10 +1305,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6B7FE0F-3381-4F74-A10B-D234BF05433F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8396E0C8-24DD-4AFF-B903-A0BEFC2FAAF4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>